--- a/user.xlsx
+++ b/user.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user6\Desktop\github\shell\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC2AE3-A3F8-4D56-A730-492A12F3EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="user_roles" sheetId="2" r:id="rId2"/>
     <sheet name="clients" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="2029">
   <si>
     <t>user_id</t>
   </si>
@@ -6091,13 +6097,25 @@
   </si>
   <si>
     <t>PARTICULIER</t>
+  </si>
+  <si>
+    <t>bozo</t>
+  </si>
+  <si>
+    <t>bozo adress</t>
+  </si>
+  <si>
+    <t>Bozo1234@</t>
+  </si>
+  <si>
+    <t>BOZO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6109,6 +6127,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6146,27 +6172,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6204,7 +6241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6238,6 +6275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6272,9 +6310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6447,14 +6486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6506,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6532,7 +6573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6558,7 +6599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6584,7 +6625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6610,7 +6651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6636,7 +6677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6662,7 +6703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6688,7 +6729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6714,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6740,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6766,7 +6807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6792,7 +6833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6818,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6844,7 +6885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6870,7 +6911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6896,7 +6937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6922,7 +6963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6948,7 +6989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6974,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7000,7 +7041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7026,7 +7067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7052,7 +7093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7078,7 +7119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7104,7 +7145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7130,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7156,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7182,7 +7223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7208,7 +7249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7234,7 +7275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7260,7 +7301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7286,7 +7327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7312,7 +7353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7338,7 +7379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7364,7 +7405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7390,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7416,7 +7457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7442,7 +7483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7468,7 +7509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7494,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7520,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7546,7 +7587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7572,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7598,7 +7639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7624,7 +7665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7650,7 +7691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7676,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7702,7 +7743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7728,7 +7769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7754,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7780,7 +7821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7806,7 +7847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7832,7 +7873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7858,7 +7899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7884,7 +7925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7910,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7936,7 +7977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7962,7 +8003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7988,7 +8029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8014,7 +8055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8040,7 +8081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8066,7 +8107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8092,7 +8133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8118,7 +8159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8144,7 +8185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8170,7 +8211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8196,7 +8237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8222,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8248,7 +8289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8274,7 +8315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8300,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8326,7 +8367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8352,7 +8393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8378,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8404,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8430,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8456,7 +8497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8482,7 +8523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8508,7 +8549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8534,7 +8575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8560,7 +8601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8586,7 +8627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8612,7 +8653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8638,7 +8679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8664,7 +8705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8690,7 +8731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8716,7 +8757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8742,7 +8783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8768,7 +8809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8794,7 +8835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8820,7 +8861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8846,7 +8887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8872,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8898,7 +8939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8924,7 +8965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8950,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8976,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9002,7 +9043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9028,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9054,7 +9095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9080,7 +9121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9106,7 +9147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9132,7 +9173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9158,7 +9199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9184,7 +9225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9210,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9236,7 +9277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9262,7 +9303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9288,7 +9329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9314,7 +9355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9340,7 +9381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9366,7 +9407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9392,7 +9433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9418,7 +9459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9444,7 +9485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9470,7 +9511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9496,7 +9537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9522,7 +9563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9548,7 +9589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9574,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9600,7 +9641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9626,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9652,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9678,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9704,7 +9745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9730,7 +9771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9756,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9782,7 +9823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9808,7 +9849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9834,7 +9875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9860,7 +9901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9886,7 +9927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9912,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9938,7 +9979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9964,7 +10005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9990,7 +10031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10016,7 +10057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10042,7 +10083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10068,7 +10109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10094,7 +10135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10120,7 +10161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10146,7 +10187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10172,7 +10213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10198,7 +10239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10224,7 +10265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10250,7 +10291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10276,7 +10317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10302,7 +10343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10328,7 +10369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10354,7 +10395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10380,7 +10421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10406,7 +10447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10432,7 +10473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10458,7 +10499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10484,7 +10525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10510,7 +10551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10536,7 +10577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10562,7 +10603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10588,7 +10629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10614,7 +10655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10640,7 +10681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10666,7 +10707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10692,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10718,7 +10759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10744,7 +10785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10770,7 +10811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10796,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10822,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10848,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10874,7 +10915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10900,7 +10941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10926,7 +10967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10952,7 +10993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10978,7 +11019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11004,7 +11045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11030,7 +11071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11056,7 +11097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11082,7 +11123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11108,7 +11149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11134,7 +11175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11160,7 +11201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11186,7 +11227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11212,7 +11253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11238,7 +11279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11264,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11290,7 +11331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11316,7 +11357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11342,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11368,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11394,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11420,7 +11461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11446,7 +11487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11472,7 +11513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11498,7 +11539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11524,7 +11565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11550,7 +11591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11576,7 +11617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11602,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11628,7 +11669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11654,7 +11695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11680,7 +11721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11706,7 +11747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11732,7 +11773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11758,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11784,7 +11825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11810,7 +11851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11836,7 +11877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11862,7 +11903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11888,7 +11929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11914,7 +11955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11940,7 +11981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11966,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11992,7 +12033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12018,7 +12059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12044,7 +12085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12070,7 +12111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12096,7 +12137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12122,7 +12163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12148,7 +12189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12174,7 +12215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12200,7 +12241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12226,7 +12267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12252,7 +12293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12278,7 +12319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12304,7 +12345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12330,7 +12371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12356,7 +12397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12382,7 +12423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12408,7 +12449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12434,7 +12475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12460,7 +12501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12486,7 +12527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12512,7 +12553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12538,7 +12579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12564,7 +12605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12590,7 +12631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12616,7 +12657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12642,7 +12683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12668,7 +12709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12694,7 +12735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12720,7 +12761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12746,7 +12787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12772,7 +12813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12798,7 +12839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12824,7 +12865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12850,7 +12891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12876,7 +12917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12902,7 +12943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12928,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12954,7 +12995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12980,7 +13021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13006,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13032,7 +13073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13058,7 +13099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13084,7 +13125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13110,7 +13151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13136,7 +13177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13162,7 +13203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13188,7 +13229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13214,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13240,7 +13281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13266,7 +13307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13292,7 +13333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13318,7 +13359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13344,7 +13385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13370,7 +13411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13396,7 +13437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13422,7 +13463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13448,7 +13489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13474,7 +13515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13500,7 +13541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13526,7 +13567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13552,7 +13593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13578,7 +13619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13604,7 +13645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13630,7 +13671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13656,7 +13697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13682,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13708,7 +13749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13734,7 +13775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13760,7 +13801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13786,7 +13827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13812,7 +13853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13838,7 +13879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13864,7 +13905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13890,7 +13931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13916,7 +13957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13942,7 +13983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13968,7 +14009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13994,7 +14035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14020,7 +14061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14046,7 +14087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14072,7 +14113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14098,7 +14139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14124,7 +14165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14150,7 +14191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14176,7 +14217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14202,7 +14243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14228,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14254,7 +14295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14280,7 +14321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14306,7 +14347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14332,7 +14373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14358,7 +14399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14384,7 +14425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14410,7 +14451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14436,7 +14477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14462,7 +14503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14488,7 +14529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14514,7 +14555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14540,7 +14581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -14566,7 +14607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -14592,7 +14633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -14618,7 +14659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -14644,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -14670,7 +14711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -14696,7 +14737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -14722,7 +14763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14748,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14774,7 +14815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14800,7 +14841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14826,7 +14867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14852,7 +14893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14878,7 +14919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14904,7 +14945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14930,7 +14971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14956,7 +14997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14982,7 +15023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15008,7 +15049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15034,7 +15075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15060,7 +15101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15086,7 +15127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15112,7 +15153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -15138,7 +15179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -15164,7 +15205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -15190,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -15216,7 +15257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -15242,7 +15283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -15268,7 +15309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -15294,7 +15335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -15320,7 +15361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -15346,7 +15387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -15372,7 +15413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15398,7 +15439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15424,7 +15465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15450,7 +15491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15476,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15502,7 +15543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15528,7 +15569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -15554,7 +15595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -15580,7 +15621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -15606,7 +15647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15632,7 +15673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15658,7 +15699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15684,7 +15725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15710,7 +15751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15736,7 +15777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15762,7 +15803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15788,7 +15829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15814,7 +15855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15840,7 +15881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15866,7 +15907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -15892,7 +15933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -15918,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15944,7 +15985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15970,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -15996,7 +16037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -16022,7 +16063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -16048,7 +16089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -16074,7 +16115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -16100,7 +16141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -16126,7 +16167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -16152,7 +16193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -16178,7 +16219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -16204,7 +16245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -16230,7 +16271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -16256,7 +16297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -16282,7 +16323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -16308,7 +16349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -16334,7 +16375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -16360,7 +16401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -16386,7 +16427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -16412,7 +16453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -16438,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -16464,7 +16505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -16490,7 +16531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -16516,7 +16557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -16542,7 +16583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -16568,7 +16609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -16594,7 +16635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -16620,7 +16661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -16646,7 +16687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -16672,7 +16713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -16698,7 +16739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -16724,7 +16765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -16750,7 +16791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -16776,7 +16817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -16802,7 +16843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -16828,7 +16869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -16854,7 +16895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -16880,20 +16921,51 @@
         <v>9</v>
       </c>
     </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G402" r:id="rId1" xr:uid="{1B33C5EF-B79D-4340-9D78-763C3CCD7F0F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16901,7 +16973,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16909,7 +16981,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16917,7 +16989,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16925,7 +16997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16933,7 +17005,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16941,7 +17013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16949,7 +17021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16957,7 +17029,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16965,7 +17037,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16973,7 +17045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16981,7 +17053,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16989,7 +17061,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16997,7 +17069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17005,7 +17077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17013,7 +17085,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17021,7 +17093,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17029,7 +17101,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17037,7 +17109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17045,7 +17117,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17053,7 +17125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17061,7 +17133,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17069,7 +17141,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17077,7 +17149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17085,7 +17157,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17093,7 +17165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17101,7 +17173,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17109,7 +17181,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17117,7 +17189,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17125,7 +17197,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17133,7 +17205,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17141,7 +17213,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17149,7 +17221,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17157,7 +17229,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17165,7 +17237,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17173,7 +17245,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17181,7 +17253,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17189,7 +17261,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17197,7 +17269,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17205,7 +17277,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17213,7 +17285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17221,7 +17293,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17229,7 +17301,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17237,7 +17309,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17245,7 +17317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17253,7 +17325,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17261,7 +17333,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17269,7 +17341,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17277,7 +17349,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17285,7 +17357,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17293,7 +17365,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17301,7 +17373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17309,7 +17381,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17317,7 +17389,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17325,7 +17397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17333,7 +17405,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17341,7 +17413,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17349,7 +17421,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17357,7 +17429,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17365,7 +17437,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17373,7 +17445,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17381,7 +17453,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17389,7 +17461,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17397,7 +17469,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17405,7 +17477,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17413,7 +17485,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17421,7 +17493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17429,7 +17501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17437,7 +17509,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17445,7 +17517,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17453,7 +17525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17461,7 +17533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17469,7 +17541,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17477,7 +17549,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17485,7 +17557,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17493,7 +17565,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17501,7 +17573,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17509,7 +17581,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17517,7 +17589,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17525,7 +17597,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17533,7 +17605,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17541,7 +17613,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17549,7 +17621,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17557,7 +17629,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -17565,7 +17637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17573,7 +17645,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17581,7 +17653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17589,7 +17661,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17597,7 +17669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17605,7 +17677,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17613,7 +17685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17621,7 +17693,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17629,7 +17701,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17637,7 +17709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17645,7 +17717,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17653,7 +17725,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17661,7 +17733,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17669,7 +17741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17677,7 +17749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17685,7 +17757,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17693,7 +17765,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17701,7 +17773,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17709,7 +17781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17717,7 +17789,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17725,7 +17797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17733,7 +17805,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17741,7 +17813,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17749,7 +17821,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17757,7 +17829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17765,7 +17837,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17773,7 +17845,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17781,7 +17853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17789,7 +17861,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17797,7 +17869,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17805,7 +17877,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17813,7 +17885,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17821,7 +17893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17829,7 +17901,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17837,7 +17909,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17845,7 +17917,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17853,7 +17925,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -17861,7 +17933,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -17869,7 +17941,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -17877,7 +17949,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -17885,7 +17957,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -17893,7 +17965,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -17901,7 +17973,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -17909,7 +17981,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -17917,7 +17989,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17925,7 +17997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17933,7 +18005,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17941,7 +18013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17949,7 +18021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17957,7 +18029,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17965,7 +18037,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17973,7 +18045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17981,7 +18053,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -17989,7 +18061,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17997,7 +18069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18005,7 +18077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18013,7 +18085,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18021,7 +18093,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18029,7 +18101,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18037,7 +18109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18045,7 +18117,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18053,7 +18125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18061,7 +18133,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18069,7 +18141,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18077,7 +18149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18085,7 +18157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18093,7 +18165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -18101,7 +18173,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -18109,7 +18181,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -18117,7 +18189,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -18125,7 +18197,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18133,7 +18205,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18141,7 +18213,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18149,7 +18221,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18157,7 +18229,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18165,7 +18237,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18173,7 +18245,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18181,7 +18253,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18189,7 +18261,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18197,7 +18269,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18205,7 +18277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18213,7 +18285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18221,7 +18293,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18229,7 +18301,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18237,7 +18309,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18245,7 +18317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18253,7 +18325,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18261,7 +18333,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18269,7 +18341,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18277,7 +18349,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -18285,7 +18357,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -18293,7 +18365,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -18301,7 +18373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -18309,7 +18381,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -18317,7 +18389,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -18325,7 +18397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -18333,7 +18405,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -18341,7 +18413,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18349,7 +18421,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18357,7 +18429,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18365,7 +18437,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18373,7 +18445,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18381,7 +18453,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18389,7 +18461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18397,7 +18469,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18405,7 +18477,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -18413,7 +18485,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -18421,7 +18493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -18429,7 +18501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -18437,7 +18509,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18445,7 +18517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18453,7 +18525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18461,7 +18533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -18469,7 +18541,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18477,7 +18549,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18485,7 +18557,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18493,7 +18565,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18501,7 +18573,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18509,7 +18581,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18517,7 +18589,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18525,7 +18597,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18533,7 +18605,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18541,7 +18613,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18549,7 +18621,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18557,7 +18629,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18565,7 +18637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18573,7 +18645,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18581,7 +18653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18589,7 +18661,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18597,7 +18669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18605,7 +18677,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18613,7 +18685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18621,7 +18693,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18629,7 +18701,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18637,7 +18709,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18645,7 +18717,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18653,7 +18725,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18661,7 +18733,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -18669,7 +18741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -18677,7 +18749,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -18685,7 +18757,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -18693,7 +18765,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -18701,7 +18773,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -18709,7 +18781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -18717,7 +18789,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -18725,7 +18797,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -18733,7 +18805,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -18741,7 +18813,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -18749,7 +18821,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -18757,7 +18829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -18765,7 +18837,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18773,7 +18845,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18781,7 +18853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18789,7 +18861,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18797,7 +18869,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18805,7 +18877,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18813,7 +18885,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18821,7 +18893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18829,7 +18901,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18837,7 +18909,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18845,7 +18917,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18853,7 +18925,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18861,7 +18933,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18869,7 +18941,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18877,7 +18949,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18885,7 +18957,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18893,7 +18965,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18901,7 +18973,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18909,7 +18981,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18917,7 +18989,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18925,7 +18997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18933,7 +19005,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18941,7 +19013,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18949,7 +19021,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18957,7 +19029,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18965,7 +19037,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18973,7 +19045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -18981,7 +19053,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -18989,7 +19061,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -18997,7 +19069,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19005,7 +19077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19013,7 +19085,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19021,7 +19093,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19029,7 +19101,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19037,7 +19109,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19045,7 +19117,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19053,7 +19125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19061,7 +19133,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19069,7 +19141,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19077,7 +19149,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19085,7 +19157,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19093,7 +19165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19101,7 +19173,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19109,7 +19181,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19117,7 +19189,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19125,7 +19197,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19133,7 +19205,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19141,7 +19213,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19149,7 +19221,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -19157,7 +19229,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19165,7 +19237,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -19173,7 +19245,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -19181,7 +19253,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -19189,7 +19261,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -19197,7 +19269,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -19205,7 +19277,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -19213,7 +19285,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -19221,7 +19293,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19229,7 +19301,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -19237,7 +19309,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -19245,7 +19317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -19253,7 +19325,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -19261,7 +19333,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -19269,7 +19341,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -19277,7 +19349,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -19285,7 +19357,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -19293,7 +19365,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -19301,7 +19373,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -19309,7 +19381,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -19317,7 +19389,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -19325,7 +19397,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -19333,7 +19405,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -19341,7 +19413,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -19349,7 +19421,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -19357,7 +19429,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -19365,7 +19437,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -19373,7 +19445,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -19381,7 +19453,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -19389,7 +19461,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -19397,7 +19469,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -19405,7 +19477,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -19413,7 +19485,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -19421,7 +19493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -19429,7 +19501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -19437,7 +19509,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -19445,7 +19517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -19453,7 +19525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -19461,7 +19533,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -19469,7 +19541,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -19477,7 +19549,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -19485,7 +19557,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -19493,7 +19565,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -19501,7 +19573,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -19509,7 +19581,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -19517,7 +19589,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19525,7 +19597,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19533,7 +19605,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19541,7 +19613,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -19549,7 +19621,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -19557,7 +19629,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -19565,7 +19637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -19573,7 +19645,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -19581,7 +19653,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -19589,7 +19661,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -19597,7 +19669,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -19605,7 +19677,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -19613,7 +19685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -19621,7 +19693,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -19629,7 +19701,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -19637,7 +19709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -19645,7 +19717,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -19653,7 +19725,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -19661,7 +19733,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -19669,7 +19741,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -19677,7 +19749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -19685,7 +19757,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -19693,7 +19765,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -19701,7 +19773,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -19709,7 +19781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -19717,7 +19789,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -19725,7 +19797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -19733,7 +19805,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -19741,7 +19813,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -19749,7 +19821,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -19757,7 +19829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -19765,7 +19837,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -19773,7 +19845,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -19781,7 +19853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -19789,7 +19861,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -19797,7 +19869,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -19805,7 +19877,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -19813,7 +19885,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -19821,7 +19893,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -19829,7 +19901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -19837,7 +19909,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -19845,7 +19917,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -19853,7 +19925,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -19861,7 +19933,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -19869,7 +19941,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -19877,7 +19949,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -19885,7 +19957,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -19893,7 +19965,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -19901,7 +19973,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -19909,7 +19981,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -19917,7 +19989,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -19925,7 +19997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -19933,7 +20005,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -19941,7 +20013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -19949,7 +20021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -19957,7 +20029,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -19965,7 +20037,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -19973,7 +20045,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19981,7 +20053,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19989,7 +20061,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19997,7 +20069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -20005,7 +20077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -20013,7 +20085,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20021,7 +20093,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20029,7 +20101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -20037,7 +20109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -20045,7 +20117,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -20053,7 +20125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -20061,7 +20133,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -20069,7 +20141,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -20077,7 +20149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -20085,7 +20157,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -20093,12 +20165,20 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
       <c r="B401" t="s">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -20107,14 +20187,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2021</v>
       </c>
@@ -20122,7 +20204,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20130,7 +20212,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -20138,7 +20220,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -20146,7 +20228,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -20154,7 +20236,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -20162,7 +20244,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -20170,7 +20252,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -20178,7 +20260,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -20186,7 +20268,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -20194,7 +20276,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -20202,7 +20284,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26</v>
       </c>
@@ -20210,7 +20292,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28</v>
       </c>
@@ -20218,7 +20300,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -20226,7 +20308,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -20234,7 +20316,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -20242,7 +20324,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -20250,7 +20332,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -20258,7 +20340,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -20266,7 +20348,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
@@ -20274,7 +20356,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
@@ -20282,7 +20364,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>38</v>
       </c>
@@ -20290,7 +20372,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>39</v>
       </c>
@@ -20298,7 +20380,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40</v>
       </c>
@@ -20306,7 +20388,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41</v>
       </c>
@@ -20314,7 +20396,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44</v>
       </c>
@@ -20322,7 +20404,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>49</v>
       </c>
@@ -20330,7 +20412,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
@@ -20338,7 +20420,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>53</v>
       </c>
@@ -20346,7 +20428,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -20354,7 +20436,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -20362,7 +20444,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>59</v>
       </c>
@@ -20370,7 +20452,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -20378,7 +20460,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>64</v>
       </c>
@@ -20386,7 +20468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>65</v>
       </c>
@@ -20394,7 +20476,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>69</v>
       </c>
@@ -20402,7 +20484,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70</v>
       </c>
@@ -20410,7 +20492,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -20418,7 +20500,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>77</v>
       </c>
@@ -20426,7 +20508,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>81</v>
       </c>
@@ -20434,7 +20516,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>83</v>
       </c>
@@ -20442,7 +20524,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>87</v>
       </c>
@@ -20450,7 +20532,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>89</v>
       </c>
@@ -20458,7 +20540,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>90</v>
       </c>
@@ -20466,7 +20548,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>92</v>
       </c>
@@ -20474,7 +20556,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>94</v>
       </c>
@@ -20482,7 +20564,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -20490,7 +20572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>96</v>
       </c>
@@ -20498,7 +20580,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>99</v>
       </c>
@@ -20506,7 +20588,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>101</v>
       </c>
@@ -20514,7 +20596,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>103</v>
       </c>
@@ -20522,7 +20604,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>106</v>
       </c>
@@ -20530,7 +20612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>107</v>
       </c>
@@ -20538,7 +20620,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>109</v>
       </c>
@@ -20546,7 +20628,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>113</v>
       </c>
@@ -20554,7 +20636,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>115</v>
       </c>
@@ -20562,7 +20644,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>116</v>
       </c>
@@ -20570,7 +20652,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>117</v>
       </c>
@@ -20578,7 +20660,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>119</v>
       </c>
@@ -20586,7 +20668,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>120</v>
       </c>
@@ -20594,7 +20676,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>125</v>
       </c>
@@ -20602,7 +20684,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>126</v>
       </c>
@@ -20610,7 +20692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>130</v>
       </c>
@@ -20618,7 +20700,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>131</v>
       </c>
@@ -20626,7 +20708,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>133</v>
       </c>
@@ -20634,7 +20716,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>135</v>
       </c>
@@ -20642,7 +20724,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>136</v>
       </c>
@@ -20650,7 +20732,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>137</v>
       </c>
@@ -20658,7 +20740,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>139</v>
       </c>
@@ -20666,7 +20748,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>145</v>
       </c>
@@ -20674,7 +20756,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>148</v>
       </c>
@@ -20682,7 +20764,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>151</v>
       </c>
@@ -20690,7 +20772,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>152</v>
       </c>
@@ -20698,7 +20780,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>155</v>
       </c>
@@ -20706,7 +20788,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>157</v>
       </c>
@@ -20714,7 +20796,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>158</v>
       </c>
@@ -20722,7 +20804,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>160</v>
       </c>
@@ -20730,7 +20812,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>162</v>
       </c>
@@ -20738,7 +20820,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>164</v>
       </c>
@@ -20746,7 +20828,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>165</v>
       </c>
@@ -20754,7 +20836,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>166</v>
       </c>
@@ -20762,7 +20844,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>172</v>
       </c>
@@ -20770,7 +20852,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>173</v>
       </c>
@@ -20778,7 +20860,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>175</v>
       </c>
@@ -20786,7 +20868,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>178</v>
       </c>
@@ -20794,7 +20876,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>179</v>
       </c>
@@ -20802,7 +20884,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>180</v>
       </c>
@@ -20810,7 +20892,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>182</v>
       </c>
@@ -20818,7 +20900,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>183</v>
       </c>
@@ -20826,7 +20908,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>184</v>
       </c>
@@ -20834,7 +20916,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>187</v>
       </c>
@@ -20842,7 +20924,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>189</v>
       </c>
@@ -20850,7 +20932,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>190</v>
       </c>
@@ -20858,7 +20940,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>193</v>
       </c>
@@ -20866,7 +20948,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>194</v>
       </c>
@@ -20874,7 +20956,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>195</v>
       </c>
@@ -20882,7 +20964,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>197</v>
       </c>
@@ -20890,7 +20972,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>201</v>
       </c>
@@ -20898,7 +20980,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>203</v>
       </c>
@@ -20906,7 +20988,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>204</v>
       </c>
@@ -20914,7 +20996,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>207</v>
       </c>
@@ -20922,7 +21004,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>208</v>
       </c>
@@ -20930,7 +21012,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>211</v>
       </c>
@@ -20938,7 +21020,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>212</v>
       </c>
@@ -20946,7 +21028,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>214</v>
       </c>
@@ -20954,7 +21036,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>215</v>
       </c>
@@ -20962,7 +21044,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>216</v>
       </c>
@@ -20970,7 +21052,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>218</v>
       </c>
@@ -20978,7 +21060,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>220</v>
       </c>
@@ -20986,7 +21068,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>221</v>
       </c>
@@ -20994,7 +21076,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>222</v>
       </c>
@@ -21002,7 +21084,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>223</v>
       </c>
@@ -21010,7 +21092,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>226</v>
       </c>
@@ -21018,7 +21100,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>227</v>
       </c>
@@ -21026,7 +21108,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>230</v>
       </c>
@@ -21034,7 +21116,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>231</v>
       </c>
@@ -21042,7 +21124,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>232</v>
       </c>
@@ -21050,7 +21132,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>236</v>
       </c>
@@ -21058,7 +21140,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>238</v>
       </c>
@@ -21066,7 +21148,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>239</v>
       </c>
@@ -21074,7 +21156,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>240</v>
       </c>
@@ -21082,7 +21164,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>241</v>
       </c>
@@ -21090,7 +21172,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>245</v>
       </c>
@@ -21098,7 +21180,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>246</v>
       </c>
@@ -21106,7 +21188,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>247</v>
       </c>
@@ -21114,7 +21196,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>249</v>
       </c>
@@ -21122,7 +21204,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>254</v>
       </c>
@@ -21130,7 +21212,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>257</v>
       </c>
@@ -21138,7 +21220,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>261</v>
       </c>
@@ -21146,7 +21228,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>264</v>
       </c>
@@ -21154,7 +21236,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>265</v>
       </c>
@@ -21162,7 +21244,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>267</v>
       </c>
@@ -21170,7 +21252,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>271</v>
       </c>
@@ -21178,7 +21260,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>272</v>
       </c>
@@ -21186,7 +21268,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>273</v>
       </c>
@@ -21194,7 +21276,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>276</v>
       </c>
@@ -21202,7 +21284,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>278</v>
       </c>
@@ -21210,7 +21292,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>282</v>
       </c>
@@ -21218,7 +21300,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>284</v>
       </c>
@@ -21226,7 +21308,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>285</v>
       </c>
@@ -21234,7 +21316,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>286</v>
       </c>
@@ -21242,7 +21324,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>287</v>
       </c>
@@ -21250,7 +21332,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>288</v>
       </c>
@@ -21258,7 +21340,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>290</v>
       </c>
@@ -21266,7 +21348,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>291</v>
       </c>
@@ -21274,7 +21356,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>294</v>
       </c>
@@ -21282,7 +21364,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>295</v>
       </c>
@@ -21290,7 +21372,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>296</v>
       </c>
@@ -21298,7 +21380,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>298</v>
       </c>
@@ -21306,7 +21388,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>299</v>
       </c>
@@ -21314,7 +21396,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>301</v>
       </c>
@@ -21322,7 +21404,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>305</v>
       </c>
@@ -21330,7 +21412,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>306</v>
       </c>
@@ -21338,7 +21420,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>309</v>
       </c>
@@ -21346,7 +21428,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>311</v>
       </c>
@@ -21354,7 +21436,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>312</v>
       </c>
@@ -21362,7 +21444,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>313</v>
       </c>
@@ -21370,7 +21452,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>314</v>
       </c>
@@ -21378,7 +21460,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>315</v>
       </c>
@@ -21386,7 +21468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>317</v>
       </c>
@@ -21394,7 +21476,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>318</v>
       </c>
@@ -21402,7 +21484,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>319</v>
       </c>
@@ -21410,7 +21492,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>321</v>
       </c>
@@ -21418,7 +21500,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>323</v>
       </c>
@@ -21426,7 +21508,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>325</v>
       </c>
@@ -21434,7 +21516,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>327</v>
       </c>
@@ -21442,7 +21524,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>328</v>
       </c>
@@ -21450,7 +21532,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>329</v>
       </c>
@@ -21458,7 +21540,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>330</v>
       </c>
@@ -21466,7 +21548,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>331</v>
       </c>
@@ -21474,7 +21556,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>332</v>
       </c>
@@ -21482,7 +21564,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>333</v>
       </c>
@@ -21490,7 +21572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>334</v>
       </c>
@@ -21498,7 +21580,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>338</v>
       </c>
@@ -21506,7 +21588,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>339</v>
       </c>
@@ -21514,7 +21596,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>340</v>
       </c>
@@ -21522,7 +21604,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>341</v>
       </c>
@@ -21530,7 +21612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>342</v>
       </c>
@@ -21538,7 +21620,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>345</v>
       </c>
@@ -21546,7 +21628,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>348</v>
       </c>
@@ -21554,7 +21636,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>350</v>
       </c>
@@ -21562,7 +21644,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>351</v>
       </c>
@@ -21570,7 +21652,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>353</v>
       </c>
@@ -21578,7 +21660,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>354</v>
       </c>
@@ -21586,7 +21668,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>355</v>
       </c>
@@ -21594,7 +21676,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>357</v>
       </c>
@@ -21602,7 +21684,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>362</v>
       </c>
@@ -21610,7 +21692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>364</v>
       </c>
@@ -21618,7 +21700,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>365</v>
       </c>
@@ -21626,7 +21708,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>367</v>
       </c>
@@ -21634,7 +21716,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>369</v>
       </c>
@@ -21642,7 +21724,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>372</v>
       </c>
@@ -21650,7 +21732,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>374</v>
       </c>
@@ -21658,7 +21740,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>375</v>
       </c>
@@ -21666,7 +21748,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>379</v>
       </c>
@@ -21674,7 +21756,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>380</v>
       </c>
@@ -21682,7 +21764,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>381</v>
       </c>
@@ -21690,7 +21772,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>382</v>
       </c>
@@ -21698,7 +21780,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>384</v>
       </c>
@@ -21706,7 +21788,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>385</v>
       </c>
@@ -21714,7 +21796,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>387</v>
       </c>
@@ -21722,7 +21804,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>391</v>
       </c>
@@ -21730,7 +21812,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>396</v>
       </c>
@@ -21738,7 +21820,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>400</v>
       </c>
